--- a/datasets/kakaobank/kakaobank_cleaned_combined_dataset.xlsx
+++ b/datasets/kakaobank/kakaobank_cleaned_combined_dataset.xlsx
@@ -6451,7 +6451,7 @@
     <t>① 상장 앞둔 카카오뱅크·크래프톤·카카..., "은행주가 돌아왔다"…카카오뱅크 상장 영향은?, ① 상장 앞둔 카카오뱅크·크래프톤·카카...</t>
   </si>
   <si>
-    <t>카카오뱅크, 전북은행과 국고금수납점 업무협약 체결, 카카오뱅크-전북은행, 국고금수납점 MOU 체결, 슈퍼 IPO위크, 카뱅·크래프톤 말고 다른 ‘알짜주’ 찾는..., 전북銀-카카오뱅크 국고금수납점 업무협약 체결, 카뱅 계좌로도 세금 낸다…전북은행과 MOU, 슈퍼 IPO위크, 카뱅·크래프톤 말고 다른 ‘알짜주’ 찾는..., 카뱅 계좌로도 세금 낸다…전북은행과 MOU, 카카오뱅크, 전북은행과 국고금수납점 업무협약 체결, 전북銀-카카오뱅크 국고금수납점 업무협약 체결, 카카오뱅크-전북은행, 국고금수납점 MOU 체결</t>
+    <t>카카오뱅크, 전북은행과 국고금수납점 업무협약 체결, 전북은행, 국고금수납점 MOU 체결, 슈퍼 IPO위크, 카뱅·크래프톤 말고 다른 ‘알짜주’ 찾는..., 전북銀-카카오뱅크 국고금수납점 업무협약 체결, 카뱅 계좌로도 세금 낸다…전북은행과 MOU, 슈퍼 IPO위크, 카뱅·크래프톤 말고 다른 ‘알짜주’ 찾는..., 카뱅 계좌로도 세금 낸다…전북은행과 MOU, 카카오뱅크, 전북은행과 국고금수납점 업무협약 체결, 전북銀-카카오뱅크 국고금수납점 업무협약 체결, 전북은행, 국고금수납점 MOU 체결</t>
   </si>
   <si>
     <t>카카오 뱅크, 국민은행보다 시총 높은데 '따상' 가능? [비상장사 탐구..., 카카오 뱅크, 국민은행보다 시총 높은데 '따상' 가능? [비상장사 탐구..., 카카오 뱅크, 국민은행보다 시총 높은데 '따상' 가능? [비상장사 탐구...</t>
@@ -6520,7 +6520,7 @@
     <t>카카오뱅크, 프렌즈 체크카드 쓸 때마다 캐시백, 카카오뱅크 1인당 최대 배정주식 2662주, '쩐의 전쟁' 카뱅 공모 청약··· 170억 넣은 청약자만 23명, 이번주(8월 1주) 크래프톤 청약·카카오뱅크 상장 등, 카카오뱅크 최대 배정주식 2662주…증거금 170억 납부, 카뱅 선전포고 덕에…'주담대' 클릭 몇 번에 가능해진다, 이번주(8월 1주) 크래프톤 청약·카카오뱅크 상장 등, 카카오뱅크, 프렌즈 체크카드 쓸 때마다 캐시백, 카뱅 공모주 인당 최대 2662주…170억 납부는 23명</t>
   </si>
   <si>
-    <t>크래프톤 청약 첫날 2.8대 1… 증거금 카뱅 10분의 1에 그쳐, 서금원-카뱅, 서민금융지원 활성화 맞손, 카카오뱅크-서금원, 서민금융 지원 위한 업무협약 체결, 크래프톤 청약 첫날 2.8대 1… 증거금 카뱅 10분의 1에 그쳐, 서금원-카뱅, 서민금융지원 활성화 맞손, 카카오뱅크-서금원, 서민금융 지원 위한 업무협약 체결, 서민금융진흥원-카카오뱅크, 맞춤대출 연계 협약, 카카오뱅크, 서민금융진흥원과 '서민 금융지원 활성화' 업무협약 체결, 카뱅 청약이 뭐라고…신용대출 5조↑, 요구불예금 20조↓, 카카오뱅크 환불에 크래프톤 청약까지…예탁금 다시 '75조', 금융정의연대 "금감원, 카뱅 전세대출 허위 조사해야", ‘카뱅’ 논란...“그래봤자 은행” vs “결국엔 플랫폼” [은행시대의..., 186만명 몰린 카뱅 증거금 반환…예탁금 75조원 돌파, 카뱅의 주담대 실험을 주목하라③, '카뱅'에 막힌 은행株..."실적과 배당을 보라", 카카오뱅크 환불에 크래프톤 청약까지…예탁금 다시 '75조', 카카오뱅크, 서민금융진흥원과 '서민 금융지원 활성화' 업무협약 체결, 금융정의연대 "금감원, 카뱅 전세대출 허위 조사해야", ‘카뱅’ 논란...“그래봤자 은행” vs “결국엔 플랫폼” [은행시대의..., 카카오뱅크 논란…“그래봤자 은행” vs. “결국..., 카뱅의 주담대 실험을 주목하라③, '카뱅'에 막힌 은행株..."실적과 배당을 보라", 카카오뱅크 논란…“그래봤자 은행” vs. “결국...</t>
+    <t>크래프톤 청약 첫날 2.8대 1… 증거금 카뱅 10분의 1에 그쳐, 서금원-카뱅, 서민금융지원 활성화 맞손, 서금원, 서민금융 지원 위한 업무협약 체결, 크래프톤 청약 첫날 2.8대 1… 증거금 카뱅 10분의 1에 그쳐, 서금원-카뱅, 서민금융지원 활성화 맞손, 서금원, 서민금융 지원 위한 업무협약 체결, 서민금융진흥원-카카오뱅크, 맞춤대출 연계 협약, 카카오뱅크, 서민금융진흥원과 '서민 금융지원 활성화' 업무협약 체결, 카뱅 청약이 뭐라고…신용대출 5조↑, 요구불예금 20조↓, 카카오뱅크 환불에 크래프톤 청약까지…예탁금 다시 '75조', 금융정의연대 "금감원, 카뱅 전세대출 허위 조사해야", ‘카뱅’ 논란...“그래봤자 은행” vs “결국엔 플랫폼” [은행시대의..., 186만명 몰린 카뱅 증거금 반환…예탁금 75조원 돌파, 카뱅의 주담대 실험을 주목하라③, '카뱅'에 막힌 은행株..."실적과 배당을 보라", 카카오뱅크 환불에 크래프톤 청약까지…예탁금 다시 '75조', 카카오뱅크, 서민금융진흥원과 '서민 금융지원 활성화' 업무협약 체결, 금융정의연대 "금감원, 카뱅 전세대출 허위 조사해야", ‘카뱅’ 논란...“그래봤자 은행” vs “결국엔 플랫폼” [은행시대의..., 카카오뱅크 논란…“그래봤자 은행” vs. “결국..., 카뱅의 주담대 실험을 주목하라③, '카뱅'에 막힌 은행株..."실적과 배당을 보라", 카카오뱅크 논란…“그래봤자 은행” vs. “결국...</t>
   </si>
   <si>
     <t>카카오뱅크 6일 상장하는데, 주가 전망은…코스피200 조기 편입 vs ..., "IPO 최대어 맞아?"…'흥행참패' 크래프톤, 중복청약에도 증거금 카..., 카카오뱅크, 따상 가능할까…6일로 쏠리는 시선, "카카오뱅크, 상장후 추세적 상승 어렵다", “카카오뱅크, 기대감 반영된 밸류…추세적 상승 어려워”, 카카오뱅크 6일 상장하는데, 주가 전망은…코스피200 조기 편입 vs ..., "IPO 최대어 맞아?"…'흥행참패' 크래프톤, 중복청약에도 증거금 카..., "카카오뱅크, 상장후 추세적 상승 어렵다", "기대하지 마라"...카뱅 저격 나선 '은행계 증권사'들, 카카오뱅크, 따상 가능할까…6일로 쏠리는 시선, 상장 3일 앞둔 대어 카뱅에…증권가 '신중' 분석 내놓는 이유, “카카오뱅크, 기대감 반영된 밸류…추세적 상승 어려워”, "기대하지 마라"...카뱅 저격 나선 '은행계 증권사'들, 상장 3일 앞둔 대어 카뱅에…증권가 '신중' 분석 내놓는 이유, 피치, 상장 앞둔 카카오뱅크에 일침…“시중은행에 위협 안 돼”, 카뱅 공모주 청약 다음날 26조원 되돌아온 까닭, 카카오뱅크, 서민금융진흥원과 업무협약 체결, '카뱅' 효과 한국금융지주, 1조원 클럽 기대에 주가 상승, “카카오뱅크, 기대감 반영된 밸류…추세적 상승 어려워”, 피치, 상장 앞둔 카카오뱅크에 일침…“시중은행에 위협 안 돼”, 카뱅 청약 다음날 돈이 돌아왔다…28일 하루만에 25조 '컴백', 한국금융지주, 2분기 연결지배순익 컨세서스 상회…카뱅 지분가치 주가 선...</t>
@@ -6838,7 +6838,7 @@
     <t>카카오뱅크, ATM 수수료 면제 정책 내년 6월까지로 연장, 카카오뱅크·카카오페이 급락…하루새 시총 5조 '증발', 카뱅 '미니 효과'에…은행도 10代 잡기 나섰다, 카카오뱅크, ATM 이용 수수료 면제 내년 6개월까지 연장, 카카오뱅크·카카오페이 급락…하루새 시총 5조 '증발', 카카오뱅크, ATM 수수료 면제 정책 내년 6월까지로 연장, "고객이탈 막아라"…카카오뱅크, 'ATM 수수료 면제' 또 연장, "고객이탈 막아라"…카카오뱅크, 'ATM 수수료 면제' 또 연장, 카뱅 '미니 효과'에…은행도 10代 잡기 나섰다, "고객이탈 막아라"…카카오뱅크, 'ATM 수수료 면제' 또 연장, 카뱅 '미니 효과'에…은행도 10代 잡기 나섰다, 카카오뱅크·카카오페이 급락…하루새 시총 5조 '증발', 카카오뱅크, ATM 수수료 면제 정책 내년 6월까지로 연장, 카페, 카뱅 넘을까?…무한질주는 어려워, 카페, 카뱅 넘을까?…무한질주는 어려워, 카카오뱅크 "편의점·은행 ATM 무료로 이용하세요", 카페, 카뱅 넘을까?…무한질주는 어려워</t>
   </si>
   <si>
-    <t>'카카오뱅크 주식 500주 쏜다' 신금투, 카뱅 제휴 기념 이벤트 실시, 카카오뱅크, 카카오브레인과 인공지능 기술 개발 위해 머리 맞댄다, 카카오뱅크-카카오브레인, 금융소비자 행동분석 연구 '맞손', 카카오뱅크-카카오브레인, 금융소비자 행동분석 연구 '맞손', 신한금융투자, 카카오뱅크 제휴 기념 이벤트 실시, 카카오뱅크, 카카오브레인과 인공지능 기술 개발 위해 머리 맞댄다, “코스피 방향 맞추면 카뱅 주식 드려요”, 신한금융투자, 카카오뱅크 제휴 기념 이벤트 실시, 신한금융투자, 카카오뱅크 제휴 기념 이벤트 실시, 카카오뱅크-카카오브레인, 금융소비자 행동분석 연구 '맞손', 카카오뱅크, 카카오브레인과 인공지능 기술 개발 위해 머리 맞댄다, “코스피 방향 맞추면 카뱅 주식 드려요”, “코스피 방향 맞추면 카뱅 주식 드려요”, 카카오뱅크, 카카오브레인과 인공지능 기술 개발 위해 머리 맞댄다, 카카오뱅크-카카오브레인, 금융소비자 행동분석 연구 '맞손'</t>
+    <t>'카카오뱅크 주식 500주 쏜다' 신금투, 카뱅 제휴 기념 이벤트 실시, 카카오뱅크, 카카오브레인과 인공지능 기술 개발 위해 머리 맞댄다, 카카오브레인, 금융소비자 행동분석 연구 '맞손', 카카오브레인, 금융소비자 행동분석 연구 '맞손', 신한금융투자, 카카오뱅크 제휴 기념 이벤트 실시, 카카오뱅크, 카카오브레인과 인공지능 기술 개발 위해 머리 맞댄다, “코스피 방향 맞추면 카뱅 주식 드려요”, 신한금융투자, 카카오뱅크 제휴 기념 이벤트 실시, 신한금융투자, 카카오뱅크 제휴 기념 이벤트 실시, 카카오브레인, 금융소비자 행동분석 연구 '맞손', 카카오뱅크, 카카오브레인과 인공지능 기술 개발 위해 머리 맞댄다, “코스피 방향 맞추면 카뱅 주식 드려요”, “코스피 방향 맞추면 카뱅 주식 드려요”, 카카오뱅크, 카카오브레인과 인공지능 기술 개발 위해 머리 맞댄다, 카카오브레인, 금융소비자 행동분석 연구 '맞손'</t>
   </si>
   <si>
     <t>이재근 KB은행장 내정자 "앱 고객수, 카뱅 제친다"(상보), 이재근 KB은행장 내정자 "앱 고객수, 카뱅 제친다"(상보), 카뱅이 개발한 얼굴인식기술, '오류 0%' 인증, 카카오뱅크 얼굴인식기술, KISA 바이오 인식 인증 통과, 카카오뱅크 얼굴인식기술, KISA 바이오 인식 인증 통과, 카뱅이 개발한 얼굴인식기술, '오류 0%' 인증, 이재근 KB은행장 내정자 "앱 고객수, 카뱅 제친다"(상보), 카뱅이 개발한 얼굴인식기술, '오류 0%' 인증, 카카오뱅크 얼굴인식기술, KISA 바이오 인식 인증 통과, 이재근 KB은행장 내정자 "앱 고객수, 카뱅 제친다"(상보)</t>
@@ -7162,7 +7162,7 @@
     <t>신한지주, 1분기 깜짝 실적에 카뱅 제쳤다, 신한지주, 1분기 깜짝 실적에 카뱅 제쳤다, 신한지주, 1분기 깜짝 실적에 카뱅 제쳤다</t>
   </si>
   <si>
-    <t>카카오뱅크-코인원, 실명계좌 가닥... 코인거래소 지각변동?, 카카오뱅크-코인원, 실명계좌 가닥... 코인거래소 지각변동?, 카카오뱅크-코인원, 실명계좌 가닥... 코인거래소 지각변동?</t>
+    <t>코인원, 실명계좌 가닥... 코인거래소 지각변동?, 코인원, 실명계좌 가닥... 코인거래소 지각변동?, 코인원, 실명계좌 가닥... 코인거래소 지각변동?</t>
   </si>
   <si>
     <t>카카오뱅크 "신용대출 줄이고 주담대 늘릴 것", 윤호영 카뱅 대표 "담보대출 확대…가상자산 계좌 긍정 검토", 악재딛고 호실적 낸 카뱅…하반기 수익다변화 속도, 카카오뱅크, 1분기 순익 지방은행 ‘훌쩍’…“여신 포폴 재편 과제”, 카뱅 역대급 실적…가상화폐 서비스 나선다, 엇갈린 카카오금융…카뱅 '사상 최대 영업익', 카카오페이 '적자 전환', 카뱅 1Q 영업익 884억…분기 사상 최대 규모, (영상)윤호영 카뱅 대표 "가상자산 서비스 제공 긍정적 검토", 플랫폼 장사 잘한 카뱅, 분기 최대 영업익, 카뱅, 1분기 영업이익 884억원…전년동기비 63.8% 증가, 윤호영 카뱅 대표 "가상화폐 거래소와 제휴 긍정적 검토", 카카오뱅크, 1분기 영업익 884억...전년 동기 대비 63.8%↑, 카카오뱅크, 1Q 매출액 3384억원…전년 대비 50.5% ↑, 카카오뱅크, 1분기 영업익 884억…전년비 63.8% ↑, 카카오뱅크, 1분기 영업익 884억…전년 동기比 63.8%↑, 카뱅 1Q 영업익 884억…분기 사상 최대 규모, 카카오뱅크, 1분기 순익 668억…전년비 43%↑, (영상)윤호영 카뱅 대표 "가상자산 서비스 제공 긍정적 검토", 사상 최대 영업익 낸 카카오뱅크..."가상자산 거래소 제휴 검토"(종..., 카카오뱅크, 1분기 순익 668억원…전년比 43.2%↑, 카카오뱅크 1분기 영업이익 884억원...63.8% 증가, 카뱅, 1분기 영업이익 884억원…전년동기비 63.8% 증가, 카카오뱅크, 1분기 순익 668억…전년비 43%↑, 카카오뱅크, 1분기 순익 668억원…전년比 43.2%↑, 카뱅 "개인사업자 대출 출시…가상자산 서비스도 진출", 카카오뱅크, 1Q 영업이익 884억… “분기 최대”, 카뱅, 1분기 영업익 884억원 최대…고객 80% '실사용자', 카카오뱅크, 1Q 영업이익 884억… “분기 최대”, 카카오뱅크, 1분기 순이익 668억원…전년보다 43%↑, 카카오뱅크, 1분기 순익 지방은행 ‘훌쩍’…“여신 포폴 재편 과제”, 카카오뱅크, 1Q 영업이익 884억… “분기 최대”, 카카오뱅크 1분기 영업이익 884억원...63.8% 증가, 카뱅 역대급 실적…가상화폐 서비스 나선다, 악재딛고 호실적 낸 카뱅…하반기 수익다변화 속도, 카카오뱅크 "가상화폐 거래소와 제휴, 긍정적으로 검토중", 사상 최대 영업익 낸 카카오뱅크..."가상자산 거래소 제휴 검토"(종합..., 카뱅 "개인사업자 대출 출시…가상자산 서비스도 진출", 카뱅 1Q 영업익 884억…분기 사상 최대 규모, 엇갈린 카카오금융…카뱅 '사상 최대 영업익', 카카오페이 '적자 전환', 악재딛고 호실적 낸 카뱅…하반기 수익다변화 속도, 윤호영 카뱅 대표 "가상화폐 거래소와 제휴 긍정적 검토", 사상 최대 영업익 낸 카카오뱅크..."가상자산 거래소 제휴 검토"(종..., 플랫폼 장사 잘한 카뱅, 분기 최대 영업익, 카뱅 역대급 실적…가상화폐 서비스 나선다, 카카오뱅크 "신용대출 줄이고 주담대 늘릴 것", 윤호영 카뱅 대표 "담보대출 확대…가상자산 계좌 긍정 검토", 윤호영 카뱅 대표 "담보대출 확대…가상자산 계좌 긍정 검토", 카뱅, 1분기 영업익 884억원 최대…고객 80% '실사용자', 윤호영 카카오뱅크 대표 “주담대 확대할 것… 가상자산 거래 제휴도 검..., 윤호영 카뱅 대표 "가상화폐 거래소와 제휴 긍정적 검토", 카뱅, 1분기 영업이익 884억원…전년동기비 63.8% 증가, 카카오뱅크, 1분기 순익 668억원…전년比 43.2%↑, 카카오뱅크, 1분기 영업익 884억…전년 동기比 63.8%↑, 카카오뱅크, 1분기 영업익 884억…전년비 63.8% ↑, 카카오뱅크, 1Q 매출액 3384억원…전년 대비 50.5% ↑, 카카오뱅크, 1분기 순이익 668억원…전년보다 43%↑, 카뱅 "개인사업자 대출 출시…가상자산 서비스도 진출", 엇갈린 카카오금융…카뱅 '사상 최대 영업익', 카카오페이 '적자 전환', 카뱅 1Q 영업익 884억…분기 사상 최대 규모, 카카오뱅크, 1분기 순익 지방은행 ‘훌쩍’…“여신 포폴 재편 과제”, (영상)윤호영 카뱅 대표 "가상자산 서비스 제공 긍정적 검토", 윤호영 카뱅 대표 "담보대출 확대…가상자산 계좌 긍정 검토", 카카오뱅크 "신용대출 줄이고 주담대 늘릴 것", 카뱅 역대급 실적…가상화폐 서비스 나선다, 플랫폼 장사 잘한 카뱅, 분기 최대 영업익, 사상 최대 영업익 낸 카카오뱅크..."가상자산 거래소 제휴 검토"(종..., 악재딛고 호실적 낸 카뱅…하반기 수익다변화 속도, 카카오뱅크, 1분기 순익 668억…전년비 43%↑</t>
